--- a/biology/Zoologie/Illawarra_wisharti/Illawarra_wisharti.xlsx
+++ b/biology/Zoologie/Illawarra_wisharti/Illawarra_wisharti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Illawarra wisharti est une espèce d'araignées mygalomorphes de la famille des Atracidae et unique représentante du genre Illawarra[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Illawarra wisharti est une espèce d'araignées mygalomorphes de la famille des Atracidae et unique représentante du genre Illawarra.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans la région d'Illawarra[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans la région d'Illawarra.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,54 mm de long sur 6,75 mm et l'abdomen 7,88 mm de long sur 5,90 mm et la carapace de la femelle paratype mesure 8,12 mm de long sur 6,72 mm et l'abdomen 9,79 mm de long sur 7,48 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,54 mm de long sur 6,75 mm et l'abdomen 7,88 mm de long sur 5,90 mm et la carapace de la femelle paratype mesure 8,12 mm de long sur 6,72 mm et l'abdomen 9,79 mm de long sur 7,48 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Graeme Wishart[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Graeme Wishart.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 2010 : A revision of the Australian funnel-web spiders (Hexathelidae: Atracinae). Records of the Australian Museum, vol. 62, p. 285-392 (texte intégral).</t>
         </is>
